--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leebi\Dropbox\My Book\quant_py\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B18D0A-D7EF-49FD-8DA8-47C934E5D00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="kospi" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,15 +28,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,15 +44,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,26 +89,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,7 +142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,27 +174,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,24 +208,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,14 +383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -472,7 +415,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,7 +429,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,13 +437,13 @@
         <v>43836</v>
       </c>
       <c r="C4">
-        <v>2155.0700000000002</v>
+        <v>2155.07</v>
       </c>
       <c r="D4">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -514,7 +457,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -525,10 +468,10 @@
         <v>2151.31</v>
       </c>
       <c r="D6">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -536,13 +479,13 @@
         <v>43839</v>
       </c>
       <c r="C7">
-        <v>2186.4499999999998</v>
+        <v>2186.45</v>
       </c>
       <c r="D7">
         <v>1.63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -556,7 +499,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -564,13 +507,13 @@
         <v>43843</v>
       </c>
       <c r="C9">
-        <v>2229.2600000000002</v>
+        <v>2229.26</v>
       </c>
       <c r="D9">
         <v>1.04</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -584,7 +527,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -598,7 +541,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -606,13 +549,13 @@
         <v>43846</v>
       </c>
       <c r="C12">
-        <v>2248.0500000000002</v>
+        <v>2248.05</v>
       </c>
       <c r="D12">
         <v>0.77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -620,13 +563,13 @@
         <v>43847</v>
       </c>
       <c r="C13">
-        <v>2250.5700000000002</v>
+        <v>2250.57</v>
       </c>
       <c r="D13">
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -640,7 +583,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -654,7 +597,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -668,7 +611,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -682,7 +625,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -690,13 +633,13 @@
         <v>43858</v>
       </c>
       <c r="C18">
-        <v>2176.7199999999998</v>
+        <v>2176.72</v>
       </c>
       <c r="D18">
         <v>-3.09</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -704,13 +647,13 @@
         <v>43859</v>
       </c>
       <c r="C19">
-        <v>2185.2800000000002</v>
+        <v>2185.28</v>
       </c>
       <c r="D19">
         <v>0.39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -724,7 +667,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -732,13 +675,13 @@
         <v>43861</v>
       </c>
       <c r="C21">
-        <v>2119.0100000000002</v>
+        <v>2119.01</v>
       </c>
       <c r="D21">
         <v>-1.35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -752,7 +695,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -766,7 +709,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -780,7 +723,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -794,7 +737,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -802,13 +745,13 @@
         <v>43868</v>
       </c>
       <c r="C26">
-        <v>2211.9499999999998</v>
+        <v>2211.95</v>
       </c>
       <c r="D26">
         <v>-0.72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -816,13 +759,13 @@
         <v>43871</v>
       </c>
       <c r="C27">
-        <v>2201.0700000000002</v>
+        <v>2201.07</v>
       </c>
       <c r="D27">
         <v>-0.49</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -836,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -847,10 +790,10 @@
         <v>2238.38</v>
       </c>
       <c r="D29">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -864,7 +807,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -878,7 +821,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -892,7 +835,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -906,7 +849,7 @@
         <v>-1.48</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -917,10 +860,10 @@
         <v>2210.34</v>
       </c>
       <c r="D34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -934,7 +877,7 @@
         <v>-0.67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -948,7 +891,7 @@
         <v>-1.49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -962,7 +905,7 @@
         <v>-3.87</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -976,7 +919,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -990,7 +933,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1004,7 +947,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1018,7 +961,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1032,7 +975,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1043,10 +986,10 @@
         <v>2014.15</v>
       </c>
       <c r="D43">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1057,10 +1000,10 @@
         <v>2059.33</v>
       </c>
       <c r="D44">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1068,13 +1011,13 @@
         <v>43895</v>
       </c>
       <c r="C45">
-        <v>2085.2600000000002</v>
+        <v>2085.26</v>
       </c>
       <c r="D45">
         <v>1.26</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1088,7 +1031,7 @@
         <v>-2.16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1099,10 +1042,10 @@
         <v>1954.77</v>
       </c>
       <c r="D47">
-        <v>-4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-4.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1116,7 +1059,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1130,7 +1073,7 @@
         <v>-2.78</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1144,7 +1087,7 @@
         <v>-3.87</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1158,7 +1101,7 @@
         <v>-3.43</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1172,7 +1115,7 @@
         <v>-3.19</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1183,10 +1126,10 @@
         <v>1672.44</v>
       </c>
       <c r="D53">
-        <v>-2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2.47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1197,10 +1140,10 @@
         <v>1591.2</v>
       </c>
       <c r="D54">
-        <v>-4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-4.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1211,10 +1154,10 @@
         <v>1457.64</v>
       </c>
       <c r="D55">
-        <v>-8.39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-8.390000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1228,7 +1171,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1242,7 +1185,7 @@
         <v>-5.34</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1256,7 +1199,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1270,7 +1213,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1281,10 +1224,10 @@
         <v>1686.24</v>
       </c>
       <c r="D60">
-        <v>-1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1298,7 +1241,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1312,7 +1255,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1326,7 +1269,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1340,7 +1283,7 @@
         <v>-3.94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1354,7 +1297,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1368,7 +1311,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1382,7 +1325,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1396,7 +1339,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1410,7 +1353,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1424,7 +1367,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1438,7 +1381,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1452,7 +1395,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1466,7 +1409,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1480,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1494,7 +1437,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1508,7 +1451,7 @@
         <v>-0.84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1522,7 +1465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1536,7 +1479,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1550,7 +1493,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1564,7 +1507,7 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1578,7 +1521,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1592,7 +1535,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1606,7 +1549,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1620,7 +1563,7 @@
         <v>-2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1634,7 +1577,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1648,7 +1591,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1662,7 +1605,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1676,7 +1619,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1690,7 +1633,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1704,7 +1647,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1718,7 +1661,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1732,7 +1675,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1746,7 +1689,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1760,7 +1703,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1774,7 +1717,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1788,7 +1731,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1802,7 +1745,7 @@
         <v>-1.41</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1816,7 +1759,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1830,7 +1773,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1841,10 +1784,10 @@
         <v>2031.2</v>
       </c>
       <c r="D100">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1858,7 +1801,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1872,7 +1815,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1886,7 +1829,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1900,7 +1843,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1914,7 +1857,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1922,13 +1865,13 @@
         <v>43986</v>
       </c>
       <c r="C106">
-        <v>2151.1799999999998</v>
+        <v>2151.18</v>
       </c>
       <c r="D106">
         <v>0.19</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1942,7 +1885,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1956,7 +1899,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1970,7 +1913,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1984,7 +1927,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1992,13 +1935,13 @@
         <v>43993</v>
       </c>
       <c r="C111">
-        <v>2176.7800000000002</v>
+        <v>2176.78</v>
       </c>
       <c r="D111">
         <v>-0.86</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2006,13 +1949,13 @@
         <v>43994</v>
       </c>
       <c r="C112">
-        <v>2132.3000000000002</v>
+        <v>2132.3</v>
       </c>
       <c r="D112">
         <v>-2.04</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2026,7 +1969,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2034,13 +1977,13 @@
         <v>43998</v>
       </c>
       <c r="C114">
-        <v>2138.0500000000002</v>
+        <v>2138.05</v>
       </c>
       <c r="D114">
         <v>5.28</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2048,13 +1991,13 @@
         <v>43999</v>
       </c>
       <c r="C115">
-        <v>2141.0500000000002</v>
+        <v>2141.05</v>
       </c>
       <c r="D115">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2068,7 +2011,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2076,13 +2019,13 @@
         <v>44001</v>
       </c>
       <c r="C117">
-        <v>2141.3200000000002</v>
+        <v>2141.32</v>
       </c>
       <c r="D117">
         <v>0.37</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2096,7 +2039,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2104,13 +2047,13 @@
         <v>44005</v>
       </c>
       <c r="C119">
-        <v>2131.2399999999998</v>
+        <v>2131.24</v>
       </c>
       <c r="D119">
         <v>0.21</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2118,13 +2061,13 @@
         <v>44006</v>
       </c>
       <c r="C120">
-        <v>2161.5100000000002</v>
+        <v>2161.51</v>
       </c>
       <c r="D120">
         <v>1.42</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2138,7 +2081,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2152,7 +2095,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2166,7 +2109,7 @@
         <v>-1.93</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2180,7 +2123,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2188,13 +2131,13 @@
         <v>44013</v>
       </c>
       <c r="C125">
-        <v>2106.6999999999998</v>
+        <v>2106.7</v>
       </c>
       <c r="D125">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2208,7 +2151,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2222,7 +2165,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2230,13 +2173,13 @@
         <v>44018</v>
       </c>
       <c r="C128">
-        <v>2187.9299999999998</v>
+        <v>2187.93</v>
       </c>
       <c r="D128">
         <v>1.65</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2247,10 +2190,10 @@
         <v>2164.17</v>
       </c>
       <c r="D129">
-        <v>-1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2264,7 +2207,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2278,7 +2221,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2289,10 +2232,10 @@
         <v>2150.25</v>
       </c>
       <c r="D132">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2306,7 +2249,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2320,7 +2263,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2334,7 +2277,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2342,13 +2285,13 @@
         <v>44028</v>
       </c>
       <c r="C136">
-        <v>2183.7600000000002</v>
+        <v>2183.76</v>
       </c>
       <c r="D136">
         <v>-0.82</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2362,7 +2305,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2370,13 +2313,13 @@
         <v>44032</v>
       </c>
       <c r="C138">
-        <v>2198.1999999999998</v>
+        <v>2198.2</v>
       </c>
       <c r="D138">
-        <v>-0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2390,7 +2333,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2404,7 +2347,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2415,10 +2358,10 @@
         <v>2216.19</v>
       </c>
       <c r="D141">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2432,7 +2375,7 @@
         <v>-0.71</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2446,7 +2389,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2454,13 +2397,13 @@
         <v>44040</v>
       </c>
       <c r="C144">
-        <v>2256.9899999999998</v>
+        <v>2256.99</v>
       </c>
       <c r="D144">
         <v>1.76</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2474,7 +2417,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2482,13 +2425,13 @@
         <v>44042</v>
       </c>
       <c r="C146">
-        <v>2267.0100000000002</v>
+        <v>2267.01</v>
       </c>
       <c r="D146">
         <v>0.17</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2502,7 +2445,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2513,10 +2456,10 @@
         <v>2251.04</v>
       </c>
       <c r="D148">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2524,13 +2467,13 @@
         <v>44047</v>
       </c>
       <c r="C149">
-        <v>2279.9699999999998</v>
+        <v>2279.97</v>
       </c>
       <c r="D149">
         <v>1.29</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2544,7 +2487,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2558,7 +2501,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2572,7 +2515,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2586,7 +2529,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2600,7 +2543,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2611,10 +2554,10 @@
         <v>2432.35</v>
       </c>
       <c r="D155">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2622,13 +2565,13 @@
         <v>44056</v>
       </c>
       <c r="C156">
-        <v>2437.5300000000002</v>
+        <v>2437.53</v>
       </c>
       <c r="D156">
         <v>0.21</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2636,13 +2579,13 @@
         <v>44057</v>
       </c>
       <c r="C157">
-        <v>2407.4899999999998</v>
+        <v>2407.49</v>
       </c>
       <c r="D157">
         <v>-1.23</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2650,13 +2593,13 @@
         <v>44061</v>
       </c>
       <c r="C158">
-        <v>2348.2399999999998</v>
+        <v>2348.24</v>
       </c>
       <c r="D158">
         <v>-2.46</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2670,7 +2613,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2678,13 +2621,13 @@
         <v>44063</v>
       </c>
       <c r="C160">
-        <v>2274.2199999999998</v>
+        <v>2274.22</v>
       </c>
       <c r="D160">
         <v>-3.66</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2698,7 +2641,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2709,10 +2652,10 @@
         <v>2329.83</v>
       </c>
       <c r="D162">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2726,7 +2669,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2734,13 +2677,13 @@
         <v>44069</v>
       </c>
       <c r="C164">
-        <v>2369.3200000000002</v>
+        <v>2369.32</v>
       </c>
       <c r="D164">
         <v>0.11</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2748,13 +2691,13 @@
         <v>44070</v>
       </c>
       <c r="C165">
-        <v>2344.4499999999998</v>
+        <v>2344.45</v>
       </c>
       <c r="D165">
         <v>-1.05</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2762,13 +2705,13 @@
         <v>44071</v>
       </c>
       <c r="C166">
-        <v>2353.8000000000002</v>
+        <v>2353.8</v>
       </c>
       <c r="D166">
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2782,7 +2725,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2790,13 +2733,13 @@
         <v>44075</v>
       </c>
       <c r="C168">
-        <v>2349.5500000000002</v>
+        <v>2349.55</v>
       </c>
       <c r="D168">
         <v>1.01</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2810,7 +2753,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2824,7 +2767,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2835,10 +2778,10 @@
         <v>2368.25</v>
       </c>
       <c r="D171">
-        <v>-1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2846,13 +2789,13 @@
         <v>44081</v>
       </c>
       <c r="C172">
-        <v>2384.2199999999998</v>
+        <v>2384.22</v>
       </c>
       <c r="D172">
         <v>0.67</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2866,7 +2809,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2877,10 +2820,10 @@
         <v>2375.81</v>
       </c>
       <c r="D174">
-        <v>-1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2894,7 +2837,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2908,7 +2851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2922,7 +2865,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2936,7 +2879,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2950,7 +2893,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2964,7 +2907,7 @@
         <v>-1.22</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2978,7 +2921,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2992,7 +2935,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3006,7 +2949,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3014,13 +2957,13 @@
         <v>44097</v>
       </c>
       <c r="C184">
-        <v>2333.2399999999998</v>
+        <v>2333.24</v>
       </c>
       <c r="D184">
         <v>0.03</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3028,13 +2971,13 @@
         <v>44098</v>
       </c>
       <c r="C185">
-        <v>2272.6999999999998</v>
+        <v>2272.7</v>
       </c>
       <c r="D185">
         <v>-2.59</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3048,7 +2991,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3062,7 +3005,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3076,7 +3019,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3090,7 +3033,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3104,7 +3047,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3118,7 +3061,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3132,7 +3075,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3146,7 +3089,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3160,7 +3103,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3171,10 +3114,10 @@
         <v>2380.48</v>
       </c>
       <c r="D195">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3185,10 +3128,10 @@
         <v>2361.21</v>
       </c>
       <c r="D196">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3196,13 +3139,13 @@
         <v>44120</v>
       </c>
       <c r="C197">
-        <v>2341.5300000000002</v>
+        <v>2341.53</v>
       </c>
       <c r="D197">
         <v>-0.83</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3210,13 +3153,13 @@
         <v>44123</v>
       </c>
       <c r="C198">
-        <v>2346.7399999999998</v>
+        <v>2346.74</v>
       </c>
       <c r="D198">
         <v>0.22</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3230,7 +3173,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3244,7 +3187,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3252,13 +3195,13 @@
         <v>44126</v>
       </c>
       <c r="C201">
-        <v>2355.0500000000002</v>
+        <v>2355.05</v>
       </c>
       <c r="D201">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3272,7 +3215,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3286,7 +3229,7 @@
         <v>-0.72</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3297,10 +3240,10 @@
         <v>2330.84</v>
       </c>
       <c r="D204">
-        <v>-0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3308,13 +3251,13 @@
         <v>44132</v>
       </c>
       <c r="C205">
-        <v>2345.2600000000002</v>
+        <v>2345.26</v>
       </c>
       <c r="D205">
         <v>0.62</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3328,7 +3271,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3342,7 +3285,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3356,7 +3299,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3370,7 +3313,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3378,13 +3321,13 @@
         <v>44139</v>
       </c>
       <c r="C210">
-        <v>2357.3200000000002</v>
+        <v>2357.32</v>
       </c>
       <c r="D210">
         <v>0.6</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3398,7 +3341,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3412,7 +3355,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3420,13 +3363,13 @@
         <v>44144</v>
       </c>
       <c r="C213">
-        <v>2447.1999999999998</v>
+        <v>2447.2</v>
       </c>
       <c r="D213">
         <v>1.27</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3440,7 +3383,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3454,7 +3397,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3468,7 +3411,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3482,7 +3425,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3490,13 +3433,13 @@
         <v>44151</v>
       </c>
       <c r="C218">
-        <v>2543.0300000000002</v>
+        <v>2543.03</v>
       </c>
       <c r="D218">
         <v>1.97</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3510,7 +3453,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3524,7 +3467,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3535,10 +3478,10 @@
         <v>2547.42</v>
       </c>
       <c r="D221">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3552,7 +3495,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3566,7 +3509,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3574,13 +3517,13 @@
         <v>44159</v>
       </c>
       <c r="C224">
-        <v>2617.7600000000002</v>
+        <v>2617.76</v>
       </c>
       <c r="D224">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3594,7 +3537,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3605,10 +3548,10 @@
         <v>2625.91</v>
       </c>
       <c r="D226">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3619,10 +3562,10 @@
         <v>2633.45</v>
       </c>
       <c r="D227">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3636,7 +3579,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3650,7 +3593,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3664,7 +3607,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3678,7 +3621,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3692,7 +3635,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3706,7 +3649,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3720,7 +3663,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3734,7 +3677,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3748,7 +3691,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3762,7 +3705,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3773,10 +3716,10 @@
         <v>2762.2</v>
       </c>
       <c r="D238">
-        <v>-0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3790,7 +3733,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3804,7 +3747,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3818,7 +3761,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3832,7 +3775,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3846,7 +3789,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3860,7 +3803,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3874,7 +3817,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3888,7 +3831,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3902,7 +3845,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3916,7 +3859,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3931,7 +3874,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>